--- a/biology/Zoologie/Holocentrus/Holocentrus.xlsx
+++ b/biology/Zoologie/Holocentrus/Holocentrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holocentrus est un genre de poissons téléostéens de la famille des Holocentridae aussi appelés poissons-soldats.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils mesurent jusqu'à 60 cm et ont une forte épine en forme de lame sur la nageoire anale et sur l'opercule branchial. En plus des caractéristiques de leur famille, ils ont un grand œil vif qui les a fait surnommer poissons écureuils (squirrelfish pour les anglophones)[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils mesurent jusqu'à 60 cm et ont une forte épine en forme de lame sur la nageoire anale et sur l'opercule branchial. En plus des caractéristiques de leur famille, ils ont un grand œil vif qui les a fait surnommer poissons écureuils (squirrelfish pour les anglophones). 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Holocentrus adscensionis
 Holocentrus bullisi
